--- a/dataset/哈利波特/output/角色统计/哈利波特与密室 第10章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与密室 第10章 角色统计.xlsx
@@ -34,6 +34,9 @@
     <t>费尔奇</t>
   </si>
   <si>
+    <t>宾斯</t>
+  </si>
+  <si>
     <t>洛哈特</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t>纳威</t>
-  </si>
-  <si>
-    <t>宾斯</t>
   </si>
   <si>
     <t>哭泣的桃金娘</t>
@@ -491,18 +491,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -524,40 +524,40 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -590,13 +590,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
